--- a/IoT_platform/IoT_Platform.xlsx
+++ b/IoT_platform/IoT_Platform.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\visual_programing_iot\IoT_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABD8D08-42CB-4BA2-8AFC-F960C54CB544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468CC727-3AB4-4E98-9A01-60CD3B8550FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -452,7 +452,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
